--- a/ride.xlsx
+++ b/ride.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D44885B-BF28-4445-8A64-4FEAD2212CFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2175" yWindow="3465" windowWidth="21630" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="3465" windowWidth="21630" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
@@ -20,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="356">
-  <si>
-    <t>신비아파트 귀신 구하리</t>
-  </si>
-  <si>
-    <t>인기 애니메이션 &lt;신비 아파트&gt; 귀신들을 승천시키는 오싹두근 신나는 여행!</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="354">
   <si>
     <t>그럴싸진관</t>
   </si>
@@ -1245,7 +1238,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -1940,7 +1933,7 @@
     <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준_result" xfId="42" xr:uid="{D4630586-9445-4A5A-B580-8BFCEE61EAD7}"/>
+    <cellStyle name="표준_result" xfId="42"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1975,7 +1968,7 @@
         <xdr:cNvPr id="2" name="그림 1" descr="https://wwwcdn.everland.com/web/images/front/everland/common/box_lt.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D460216C-1C33-4AC6-93A3-69D73AFE1AB5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D460216C-1C33-4AC6-93A3-69D73AFE1AB5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2036,7 +2029,7 @@
         <xdr:cNvPr id="3" name="그림 2" descr="https://wwwcdn.everland.com/web/images/front/everland/common/box_rt.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E006439B-15CB-4759-BCEC-1946B7DC8CE2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E006439B-15CB-4759-BCEC-1946B7DC8CE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2378,11 +2371,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A165" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2396,22 +2389,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2419,10 +2412,10 @@
         <v>101</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D2" s="8">
         <v>60</v>
@@ -2439,10 +2432,10 @@
         <v>102</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D3" s="8">
         <v>14</v>
@@ -2459,10 +2452,10 @@
         <v>103</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D4" s="8">
         <v>24</v>
@@ -2479,10 +2472,10 @@
         <v>104</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D5" s="8">
         <v>40</v>
@@ -2499,10 +2492,10 @@
         <v>105</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D6" s="8">
         <v>30</v>
@@ -2519,10 +2512,10 @@
         <v>106</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D7" s="8">
         <v>38</v>
@@ -2539,10 +2532,10 @@
         <v>107</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D8" s="8">
         <v>45</v>
@@ -2559,10 +2552,10 @@
         <v>108</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" s="8">
         <v>32</v>
@@ -2579,10 +2572,10 @@
         <v>109</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D10" s="8">
         <v>20</v>
@@ -2599,10 +2592,10 @@
         <v>110</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D11" s="8">
         <v>24</v>
@@ -2619,10 +2612,10 @@
         <v>111</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D12" s="8">
         <v>40</v>
@@ -2639,10 +2632,10 @@
         <v>112</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D13" s="8">
         <v>24</v>
@@ -2659,10 +2652,10 @@
         <v>113</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D14" s="8">
         <v>30</v>
@@ -2679,10 +2672,10 @@
         <v>114</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D15" s="8">
         <v>24</v>
@@ -2699,10 +2692,10 @@
         <v>115</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D16" s="8">
         <v>30</v>
@@ -2719,10 +2712,10 @@
         <v>116</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D17" s="8">
         <v>40</v>
@@ -2739,10 +2732,10 @@
         <v>117</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D18" s="8">
         <v>33</v>
@@ -2759,10 +2752,10 @@
         <v>118</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D19" s="8">
         <v>0</v>
@@ -2779,10 +2772,10 @@
         <v>119</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D20" s="8">
         <v>40</v>
@@ -2799,10 +2792,10 @@
         <v>120</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D21" s="8">
         <v>36</v>
@@ -2819,10 +2812,10 @@
         <v>121</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D22" s="8">
         <v>88</v>
@@ -2839,10 +2832,10 @@
         <v>122</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D23" s="8">
         <v>20</v>
@@ -2859,10 +2852,10 @@
         <v>123</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D24" s="8">
         <v>80</v>
@@ -2879,10 +2872,10 @@
         <v>124</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D25" s="8">
         <v>60</v>
@@ -2899,10 +2892,10 @@
         <v>125</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D26" s="8">
         <v>60</v>
@@ -2919,10 +2912,10 @@
         <v>126</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D27" s="8">
         <v>32</v>
@@ -2939,10 +2932,10 @@
         <v>127</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D28" s="8">
         <v>24</v>
@@ -2959,10 +2952,10 @@
         <v>128</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D29" s="8">
         <v>36</v>
@@ -2979,10 +2972,10 @@
         <v>201</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D30" s="8">
         <v>0</v>
@@ -2999,10 +2992,10 @@
         <v>202</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D31" s="8">
         <v>120</v>
@@ -3019,10 +3012,10 @@
         <v>203</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D32" s="8">
         <v>0</v>
@@ -3039,10 +3032,10 @@
         <v>204</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D33" s="8">
         <v>0</v>
@@ -3059,10 +3052,10 @@
         <v>205</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D34" s="8">
         <v>84</v>
@@ -3079,10 +3072,10 @@
         <v>206</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D35" s="8">
         <v>2</v>
@@ -3099,10 +3092,10 @@
         <v>207</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D36" s="8">
         <v>4</v>
@@ -3119,10 +3112,10 @@
         <v>208</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D37" s="8">
         <v>0</v>
@@ -3139,10 +3132,10 @@
         <v>209</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D38" s="8">
         <v>0</v>
@@ -3159,10 +3152,10 @@
         <v>210</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D39" s="8">
         <v>20</v>
@@ -3179,10 +3172,10 @@
         <v>211</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D40" s="8">
         <v>16</v>
@@ -3199,10 +3192,10 @@
         <v>212</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D41" s="8">
         <v>20</v>
@@ -3219,10 +3212,10 @@
         <v>213</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D42" s="8">
         <v>0</v>
@@ -3239,10 +3232,10 @@
         <v>214</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D43" s="8">
         <v>68</v>
@@ -3259,10 +3252,10 @@
         <v>215</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D44" s="8">
         <v>40</v>
@@ -3279,10 +3272,10 @@
         <v>216</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D45" s="8">
         <v>50</v>
@@ -3299,10 +3292,10 @@
         <v>217</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D46" s="8">
         <v>28</v>
@@ -3319,10 +3312,10 @@
         <v>218</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D47" s="8">
         <v>24</v>
@@ -3339,10 +3332,10 @@
         <v>219</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D48" s="8">
         <v>0</v>
@@ -3359,10 +3352,10 @@
         <v>220</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D49" s="8">
         <v>0</v>
@@ -3379,10 +3372,10 @@
         <v>221</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D50" s="8">
         <v>20</v>
@@ -3399,10 +3392,10 @@
         <v>222</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D51" s="8">
         <v>40</v>
@@ -3419,10 +3412,10 @@
         <v>223</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D52" s="8">
         <v>40</v>
@@ -3439,10 +3432,10 @@
         <v>224</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D53" s="8">
         <v>40</v>
@@ -3459,10 +3452,10 @@
         <v>225</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D54" s="8">
         <v>12</v>
@@ -3479,10 +3472,10 @@
         <v>226</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D55" s="8">
         <v>12</v>
@@ -3499,10 +3492,10 @@
         <v>227</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D56" s="8">
         <v>48</v>
@@ -3519,10 +3512,10 @@
         <v>228</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D57" s="8">
         <v>0</v>
@@ -3539,10 +3532,10 @@
         <v>229</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D58" s="8">
         <v>0</v>
@@ -3559,10 +3552,10 @@
         <v>230</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D59" s="8">
         <v>60</v>
@@ -3579,10 +3572,10 @@
         <v>231</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D60" s="8">
         <v>150</v>
@@ -3599,10 +3592,10 @@
         <v>232</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D61" s="8">
         <v>28</v>
@@ -3619,10 +3612,10 @@
         <v>233</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D62" s="8">
         <v>60</v>
@@ -3639,10 +3632,10 @@
         <v>234</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D63" s="8">
         <v>24</v>
@@ -3659,10 +3652,10 @@
         <v>235</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D64" s="8">
         <v>3</v>
@@ -3679,10 +3672,10 @@
         <v>236</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D65" s="8">
         <v>7</v>
@@ -3699,10 +3692,10 @@
         <v>237</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D66" s="8">
         <v>34</v>
@@ -3719,10 +3712,10 @@
         <v>238</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D67" s="8">
         <v>4</v>
@@ -3739,10 +3732,10 @@
         <v>239</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D68" s="8">
         <v>24</v>
@@ -3759,10 +3752,10 @@
         <v>240</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D69" s="8">
         <v>20</v>
@@ -3779,10 +3772,10 @@
         <v>241</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D70" s="8">
         <v>64</v>
@@ -3799,10 +3792,10 @@
         <v>242</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D71" s="8">
         <v>24</v>
@@ -3819,10 +3812,10 @@
         <v>243</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D72" s="8">
         <v>24</v>
@@ -3839,10 +3832,10 @@
         <v>244</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D73" s="8">
         <v>12</v>
@@ -3859,10 +3852,10 @@
         <v>245</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D74" s="8">
         <v>250</v>
@@ -3879,10 +3872,10 @@
         <v>246</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D75" s="8">
         <v>40</v>
@@ -3899,10 +3892,10 @@
         <v>247</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D76" s="8">
         <v>20</v>
@@ -3919,10 +3912,10 @@
         <v>248</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D77" s="8">
         <v>0</v>
@@ -3939,10 +3932,10 @@
         <v>301</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D78" s="9">
         <v>0</v>
@@ -3959,10 +3952,10 @@
         <v>302</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D79" s="9">
         <v>0</v>
@@ -3979,10 +3972,10 @@
         <v>303</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D80" s="9">
         <v>0</v>
@@ -3999,10 +3992,10 @@
         <v>304</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D81" s="9">
         <v>0</v>
@@ -4019,10 +4012,10 @@
         <v>305</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D82" s="9">
         <v>0</v>
@@ -4039,10 +4032,10 @@
         <v>306</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D83" s="9">
         <v>0</v>
@@ -4059,10 +4052,10 @@
         <v>307</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D84" s="9">
         <v>0</v>
@@ -4079,10 +4072,10 @@
         <v>308</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D85" s="9">
         <v>0</v>
@@ -4099,10 +4092,10 @@
         <v>309</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D86" s="9">
         <v>0</v>
@@ -4119,10 +4112,10 @@
         <v>310</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D87" s="9">
         <v>0</v>
@@ -4139,10 +4132,10 @@
         <v>311</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D88" s="9">
         <v>0</v>
@@ -4159,10 +4152,10 @@
         <v>312</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D89" s="9">
         <v>0</v>
@@ -4179,10 +4172,10 @@
         <v>313</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D90" s="9">
         <v>0</v>
@@ -4199,10 +4192,10 @@
         <v>314</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D91" s="9">
         <v>0</v>
@@ -4219,10 +4212,10 @@
         <v>315</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D92" s="9">
         <v>0</v>
@@ -4239,10 +4232,10 @@
         <v>316</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D93" s="9">
         <v>0</v>
@@ -4259,10 +4252,10 @@
         <v>317</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D94" s="9">
         <v>0</v>
@@ -4279,10 +4272,10 @@
         <v>318</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D95" s="9">
         <v>0</v>
@@ -4299,10 +4292,10 @@
         <v>319</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D96" s="9">
         <v>0</v>
@@ -4319,10 +4312,10 @@
         <v>320</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D97" s="9">
         <v>0</v>
@@ -4339,10 +4332,10 @@
         <v>321</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D98" s="9">
         <v>0</v>
@@ -4359,10 +4352,10 @@
         <v>322</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D99" s="9">
         <v>0</v>
@@ -4379,10 +4372,10 @@
         <v>323</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D100" s="9">
         <v>0</v>
@@ -4399,10 +4392,10 @@
         <v>324</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D101" s="9">
         <v>0</v>
@@ -4419,10 +4412,10 @@
         <v>325</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D102" s="9">
         <v>0</v>
@@ -4439,10 +4432,10 @@
         <v>326</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D103" s="9">
         <v>0</v>
@@ -4459,10 +4452,10 @@
         <v>327</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D104" s="9">
         <v>0</v>
@@ -4479,10 +4472,10 @@
         <v>328</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D105" s="9">
         <v>0</v>
@@ -4499,10 +4492,10 @@
         <v>329</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D106" s="9">
         <v>0</v>
@@ -4519,10 +4512,10 @@
         <v>330</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D107" s="9">
         <v>0</v>
@@ -4539,10 +4532,10 @@
         <v>331</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D108" s="9">
         <v>0</v>
@@ -4559,10 +4552,10 @@
         <v>332</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D109" s="9">
         <v>0</v>
@@ -4579,10 +4572,10 @@
         <v>333</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D110" s="9">
         <v>0</v>
@@ -4599,10 +4592,10 @@
         <v>334</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D111" s="9">
         <v>0</v>
@@ -4619,10 +4612,10 @@
         <v>335</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D112" s="9">
         <v>0</v>
@@ -4639,10 +4632,10 @@
         <v>336</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D113" s="9">
         <v>0</v>
@@ -4659,10 +4652,10 @@
         <v>337</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D114" s="9">
         <v>0</v>
@@ -4679,10 +4672,10 @@
         <v>338</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D115" s="9">
         <v>0</v>
@@ -4699,10 +4692,10 @@
         <v>339</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D116" s="9">
         <v>0</v>
@@ -4719,10 +4712,10 @@
         <v>340</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D117" s="9">
         <v>0</v>
@@ -4739,10 +4732,10 @@
         <v>341</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D118" s="9">
         <v>0</v>
@@ -4759,10 +4752,10 @@
         <v>342</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D119" s="9">
         <v>0</v>
@@ -4779,10 +4772,10 @@
         <v>343</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D120" s="9">
         <v>0</v>
@@ -4799,10 +4792,10 @@
         <v>344</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D121" s="9">
         <v>0</v>
@@ -4819,10 +4812,10 @@
         <v>345</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D122" s="9">
         <v>0</v>
@@ -4845,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="D123" s="10">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E123" s="10">
         <v>0</v>
@@ -4961,14 +4954,12 @@
       <c r="B129" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="C129" s="3"/>
       <c r="D129" s="10">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E129" s="10">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F129" s="9">
         <v>0</v>
@@ -4979,14 +4970,16 @@
         <v>408</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C130" s="3"/>
       <c r="D130" s="10">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E130" s="10">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F130" s="9">
         <v>0</v>
@@ -5003,10 +4996,10 @@
         <v>16</v>
       </c>
       <c r="D131" s="10">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="E131" s="10">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="F131" s="9">
         <v>0</v>
@@ -5023,7 +5016,7 @@
         <v>18</v>
       </c>
       <c r="D132" s="10">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E132" s="10">
         <v>110</v>
@@ -5043,10 +5036,10 @@
         <v>20</v>
       </c>
       <c r="D133" s="10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E133" s="10">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="F133" s="9">
         <v>0</v>
@@ -5063,10 +5056,10 @@
         <v>22</v>
       </c>
       <c r="D134" s="10">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E134" s="10">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F134" s="9">
         <v>0</v>
@@ -5083,13 +5076,13 @@
         <v>24</v>
       </c>
       <c r="D135" s="10">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E135" s="10">
-        <v>120</v>
-      </c>
-      <c r="F135" s="9">
-        <v>0</v>
+        <v>135</v>
+      </c>
+      <c r="F135" s="10">
+        <v>190</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5103,10 +5096,10 @@
         <v>26</v>
       </c>
       <c r="D136" s="10">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="E136" s="10">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F136" s="10">
         <v>190</v>
@@ -5123,13 +5116,13 @@
         <v>28</v>
       </c>
       <c r="D137" s="10">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E137" s="10">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F137" s="10">
-        <v>190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5143,10 +5136,10 @@
         <v>30</v>
       </c>
       <c r="D138" s="10">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="E138" s="10">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F138" s="10">
         <v>0</v>
@@ -5163,10 +5156,10 @@
         <v>32</v>
       </c>
       <c r="D139" s="10">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E139" s="10">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F139" s="10">
         <v>0</v>
@@ -5183,7 +5176,7 @@
         <v>34</v>
       </c>
       <c r="D140" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E140" s="10">
         <v>110</v>
@@ -5203,7 +5196,7 @@
         <v>36</v>
       </c>
       <c r="D141" s="10">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E141" s="10">
         <v>110</v>
@@ -5223,13 +5216,13 @@
         <v>38</v>
       </c>
       <c r="D142" s="10">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E142" s="10">
         <v>110</v>
       </c>
       <c r="F142" s="10">
-        <v>0</v>
+        <v>195</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5246,10 +5239,10 @@
         <v>0</v>
       </c>
       <c r="E143" s="10">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="F143" s="10">
-        <v>195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5263,10 +5256,10 @@
         <v>42</v>
       </c>
       <c r="D144" s="10">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="E144" s="10">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="F144" s="10">
         <v>0</v>
@@ -5283,13 +5276,13 @@
         <v>44</v>
       </c>
       <c r="D145" s="10">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E145" s="10">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F145" s="10">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5303,13 +5296,13 @@
         <v>46</v>
       </c>
       <c r="D146" s="10">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E146" s="10">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F146" s="10">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5323,13 +5316,13 @@
         <v>48</v>
       </c>
       <c r="D147" s="10">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E147" s="10">
         <v>130</v>
       </c>
       <c r="F147" s="10">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5343,13 +5336,13 @@
         <v>50</v>
       </c>
       <c r="D148" s="10">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E148" s="10">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F148" s="10">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5363,13 +5356,13 @@
         <v>52</v>
       </c>
       <c r="D149" s="10">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="E149" s="10">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="F149" s="10">
-        <v>195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5383,13 +5376,13 @@
         <v>54</v>
       </c>
       <c r="D150" s="10">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E150" s="10">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F150" s="10">
-        <v>0</v>
+        <v>190</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5403,13 +5396,13 @@
         <v>56</v>
       </c>
       <c r="D151" s="10">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E151" s="10">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="F151" s="10">
-        <v>190</v>
+        <v>140</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5426,10 +5419,10 @@
         <v>0</v>
       </c>
       <c r="E152" s="10">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="F152" s="10">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5446,10 +5439,10 @@
         <v>0</v>
       </c>
       <c r="E153" s="10">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F153" s="10">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5483,13 +5476,13 @@
         <v>64</v>
       </c>
       <c r="D155" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E155" s="10">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="F155" s="10">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5503,10 +5496,10 @@
         <v>66</v>
       </c>
       <c r="D156" s="10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E156" s="10">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="F156" s="10">
         <v>0</v>
@@ -5523,10 +5516,10 @@
         <v>68</v>
       </c>
       <c r="D157" s="10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E157" s="10">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="F157" s="10">
         <v>0</v>
@@ -5546,10 +5539,10 @@
         <v>0</v>
       </c>
       <c r="E158" s="10">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F158" s="10">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5563,13 +5556,13 @@
         <v>72</v>
       </c>
       <c r="D159" s="10">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E159" s="10">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F159" s="10">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5583,10 +5576,10 @@
         <v>74</v>
       </c>
       <c r="D160" s="10">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E160" s="10">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F160" s="10">
         <v>0</v>
@@ -5603,10 +5596,10 @@
         <v>76</v>
       </c>
       <c r="D161" s="10">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E161" s="10">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F161" s="10">
         <v>0</v>
@@ -5623,10 +5616,10 @@
         <v>78</v>
       </c>
       <c r="D162" s="10">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E162" s="10">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F162" s="10">
         <v>0</v>
@@ -5683,10 +5676,10 @@
         <v>84</v>
       </c>
       <c r="D165" s="10">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E165" s="10">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="F165" s="10">
         <v>0</v>
@@ -5703,10 +5696,10 @@
         <v>86</v>
       </c>
       <c r="D166" s="10">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E166" s="10">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F166" s="10">
         <v>0</v>
@@ -5726,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="10">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="F167" s="10">
         <v>0</v>
@@ -5746,10 +5739,10 @@
         <v>0</v>
       </c>
       <c r="E168" s="10">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F168" s="10">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5766,10 +5759,10 @@
         <v>0</v>
       </c>
       <c r="E169" s="10">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="F169" s="10">
-        <v>140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -5783,10 +5776,10 @@
         <v>94</v>
       </c>
       <c r="D170" s="10">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E170" s="10">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F170" s="10">
         <v>0</v>
@@ -5803,10 +5796,10 @@
         <v>96</v>
       </c>
       <c r="D171" s="10">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E171" s="10">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="F171" s="10">
         <v>0</v>
@@ -5823,10 +5816,10 @@
         <v>98</v>
       </c>
       <c r="D172" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E172" s="10">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F172" s="10">
         <v>0</v>
@@ -5843,10 +5836,10 @@
         <v>100</v>
       </c>
       <c r="D173" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E173" s="10">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="F173" s="10">
         <v>0</v>
@@ -5912,31 +5905,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="3">
-        <v>455</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D177" s="10">
-        <v>0</v>
-      </c>
-      <c r="E177" s="10">
-        <v>0</v>
-      </c>
-      <c r="F177" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="3"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D178" s="10"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F177">
+  <sortState ref="A2:F177">
     <sortCondition ref="A2:A177"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
